--- a/oil_price.xlsx
+++ b/oil_price.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,55 +434,55 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
-      <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr"/>
-      <c r="F1" t="inlineStr"/>
-      <c r="G1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>调整日期</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>品种</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>价格(元/吨)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>品种</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>价格(元/吨)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2023-04-29</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>汽油</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8890</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>↓160</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>柴油</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7855</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>↓155</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-04-18</t>
+          <t>2023-04-29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,12 +492,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9050</t>
+          <t>8890</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>↑550</t>
+          <t>↓160</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -495,19 +507,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8010</t>
+          <t>7855</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>↑525</t>
+          <t>↓155</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-04-01</t>
+          <t>2023-04-18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -517,12 +529,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8500</t>
+          <t>9050</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>↓335</t>
+          <t>↑550</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -532,19 +544,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7485</t>
+          <t>8010</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>↓320</t>
+          <t>↑525</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-03-18</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -554,12 +566,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8835</t>
+          <t>8500</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>↓100</t>
+          <t>↓335</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -569,19 +581,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7805</t>
+          <t>7485</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>↓95</t>
+          <t>↓320</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-02-04</t>
+          <t>2023-03-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,12 +603,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8935</t>
+          <t>8835</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>↑210</t>
+          <t>↓100</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -606,19 +618,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7900</t>
+          <t>7805</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>↑200</t>
+          <t>↓95</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-01-18</t>
+          <t>2023-02-04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -628,12 +640,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8725</t>
+          <t>8935</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>↓205</t>
+          <t>↑210</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -643,19 +655,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7700</t>
+          <t>7900</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>↓195</t>
+          <t>↑200</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>2023-01-18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -665,12 +677,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8930</t>
+          <t>8725</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>↑250</t>
+          <t>↓205</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -680,19 +692,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7895</t>
+          <t>7700</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>↑240</t>
+          <t>↓195</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-12-20</t>
+          <t>2023-01-04</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -702,12 +714,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8680</t>
+          <t>8930</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>↓480</t>
+          <t>↑250</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -717,19 +729,19 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7655</t>
+          <t>7895</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>↓460</t>
+          <t>↑240</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -739,12 +751,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9160</t>
+          <t>8680</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>↓440</t>
+          <t>↓480</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -754,102 +766,102 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8115</t>
+          <t>7655</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>↓425</t>
+          <t>↓460</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>2022-12-06</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9160</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>↓440</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8115</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>↓425</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>2022-11-22</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>汽油</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>9600</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>↓175</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>柴油</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>8540</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>↓165</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2022-11-08</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>汽油</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>9775</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>↑155</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>柴油</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8705</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>↑150</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -859,12 +871,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9620</t>
+          <t>9775</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>↑185</t>
+          <t>↑155</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -874,19 +886,19 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>8555</t>
+          <t>8705</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>↑175</t>
+          <t>↑150</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-09-22</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -896,12 +908,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9435</t>
+          <t>9620</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>↓290</t>
+          <t>↑185</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -911,19 +923,19 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8380</t>
+          <t>8555</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>↓280</t>
+          <t>↑175</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-09-07</t>
+          <t>2022-09-22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -933,12 +945,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9725</t>
+          <t>9435</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>↑190</t>
+          <t>↓290</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -948,19 +960,19 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8660</t>
+          <t>8380</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>↑185</t>
+          <t>↓280</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-08-24</t>
+          <t>2022-09-07</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -970,12 +982,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9535</t>
+          <t>9725</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>↓205</t>
+          <t>↑190</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -985,19 +997,19 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8475</t>
+          <t>8660</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>↓200</t>
+          <t>↑185</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-08-10</t>
+          <t>2022-08-24</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1007,12 +1019,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9740</t>
+          <t>9535</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>↓130</t>
+          <t>↓205</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1022,19 +1034,19 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>8675</t>
+          <t>8475</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>↓125</t>
+          <t>↓200</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-08-10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1044,12 +1056,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9870</t>
+          <t>9740</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>↓300</t>
+          <t>↓130</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1059,19 +1071,19 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8800</t>
+          <t>8675</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>↓290</t>
+          <t>↓125</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1081,12 +1093,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.017万</t>
+          <t>9870</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>↓360</t>
+          <t>↓300</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1096,19 +1108,19 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9090</t>
+          <t>8800</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>↓345</t>
+          <t>↓290</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-06-29</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1118,12 +1130,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.053万</t>
+          <t>1.017万</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>↓320</t>
+          <t>↓360</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1133,102 +1145,102 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9435</t>
+          <t>9090</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>↓310</t>
+          <t>↓345</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>2022-06-29</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.053万</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>↓320</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9435</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>↓310</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>2022-06-15</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>汽油</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>1.085万</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>↑390</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>柴油</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>9745</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>↑375</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-    </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2022-05-31</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>汽油</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1.046万</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>↑400</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>柴油</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>9370</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>↑390</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1238,12 +1250,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.006万</t>
+          <t>1.046万</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>↑285</t>
+          <t>↑400</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1253,19 +1265,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>8980</t>
+          <t>9370</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>↑270</t>
+          <t>↑390</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1275,12 +1287,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>9775</t>
+          <t>1.006万</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>↑205</t>
+          <t>↑285</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1290,19 +1302,19 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>8710</t>
+          <t>8980</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>↑200</t>
+          <t>↑270</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1312,12 +1324,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>9570</t>
+          <t>9775</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>↓545</t>
+          <t>↑205</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1327,19 +1339,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>8510</t>
+          <t>8710</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>↓530</t>
+          <t>↑200</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1349,12 +1361,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.0115万</t>
+          <t>9570</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>↑110</t>
+          <t>↓545</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1364,19 +1376,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>9040</t>
+          <t>8510</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>↑110</t>
+          <t>↓530</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1386,12 +1398,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.0005万</t>
+          <t>1.0115万</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>↑750</t>
+          <t>↑110</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1401,19 +1413,19 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>8930</t>
+          <t>9040</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>↑720</t>
+          <t>↑110</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1423,12 +1435,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>9255</t>
+          <t>1.0005万</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>↑260</t>
+          <t>↑750</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1438,19 +1450,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>8210</t>
+          <t>8930</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>↑255</t>
+          <t>↑720</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2022-02-18</t>
+          <t>2022-03-04</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1460,12 +1472,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>8995</t>
+          <t>9255</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>↑210</t>
+          <t>↑260</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1475,19 +1487,19 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>7955</t>
+          <t>8210</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>↑200</t>
+          <t>↑255</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2022-02-18</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1497,12 +1509,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>8785</t>
+          <t>8995</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>↑310</t>
+          <t>↑210</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1512,102 +1524,102 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>7755</t>
+          <t>7955</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>↑300</t>
+          <t>↑200</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>2022-01-30</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>8785</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>↑310</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7755</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>↑300</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>2022-01-18</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>汽油</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>8475</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>↑345</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>柴油</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>7455</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>↑330</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-    </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>汽油</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>8130</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>↑140</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>柴油</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>7125</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>↑135</t>
-        </is>
-      </c>
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2021-12-18</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1617,12 +1629,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>7990</t>
+          <t>8130</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>↓130</t>
+          <t>↑140</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1632,19 +1644,19 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>6990</t>
+          <t>7125</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>↓125</t>
+          <t>↑135</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2021-12-04</t>
+          <t>2021-12-18</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1654,12 +1666,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>8120</t>
+          <t>7990</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>↓430</t>
+          <t>↓130</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1669,19 +1681,19 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>7115</t>
+          <t>6990</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>↓415</t>
+          <t>↓125</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2021-11-20</t>
+          <t>2021-12-04</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1691,12 +1703,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>8550</t>
+          <t>8120</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>↓95</t>
+          <t>↓430</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1706,19 +1718,19 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>7530</t>
+          <t>7115</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>↓90</t>
+          <t>↓415</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021-10-23</t>
+          <t>2021-11-20</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1728,12 +1740,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>8645</t>
+          <t>8550</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>↑300</t>
+          <t>↓95</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1743,19 +1755,19 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>7620</t>
+          <t>7530</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>↑290</t>
+          <t>↓90</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2021-10-10</t>
+          <t>2021-10-23</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1765,12 +1777,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>8345</t>
+          <t>8645</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>↑345</t>
+          <t>↑300</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1780,19 +1792,19 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>7330</t>
+          <t>7620</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>↑330</t>
+          <t>↑290</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021-09-19</t>
+          <t>2021-10-10</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1802,12 +1814,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>8000</t>
+          <t>8345</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>↑90</t>
+          <t>↑345</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1817,19 +1829,19 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>7330</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>↑85</t>
+          <t>↑330</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2021-09-07</t>
+          <t>2021-09-19</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1839,12 +1851,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>7910</t>
+          <t>8000</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>↑140</t>
+          <t>↑90</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1854,19 +1866,19 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>6915</t>
+          <t>7000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>↑140</t>
+          <t>↑85</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2021-08-24</t>
+          <t>2021-09-07</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1876,12 +1888,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>7770</t>
+          <t>7910</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>↓250</t>
+          <t>↑140</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1891,102 +1903,102 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>6775</t>
+          <t>6915</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>↓245</t>
+          <t>↑140</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>2021-08-24</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>7770</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>↓250</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6775</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>↓245</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>2021-07-27</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>汽油</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>8020</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>↓100</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>柴油</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>7020</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>↓95</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-    </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2021-07-13</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>汽油</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>8120</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>↑70</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>柴油</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>7115</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>↑65</t>
-        </is>
-      </c>
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2021-06-29</t>
+          <t>2021-07-13</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1996,12 +2008,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>8050</t>
+          <t>8120</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>↑225</t>
+          <t>↑70</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2011,19 +2023,19 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>7050</t>
+          <t>7115</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>↑215</t>
+          <t>↑65</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2021-06-12</t>
+          <t>2021-06-29</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2033,12 +2045,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>7825</t>
+          <t>8050</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>↑175</t>
+          <t>↑225</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2048,19 +2060,19 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>6835</t>
+          <t>7050</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>↑170</t>
+          <t>↑215</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021-05-15</t>
+          <t>2021-06-12</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2070,12 +2082,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>7650</t>
+          <t>7825</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>↑100</t>
+          <t>↑175</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2085,19 +2097,19 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>6665</t>
+          <t>6835</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>↑100</t>
+          <t>↑170</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
+          <t>2021-05-15</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2107,7 +2119,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>7550</t>
+          <t>7650</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2122,19 +2134,19 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>6565</t>
+          <t>6665</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>↑95</t>
+          <t>↑100</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2021-04-01</t>
+          <t>2021-04-29</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2144,12 +2156,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>7450</t>
+          <t>7550</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>↓225</t>
+          <t>↑100</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2159,19 +2171,19 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>6470</t>
+          <t>6565</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>↓220</t>
+          <t>↑95</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2021-03-18</t>
+          <t>2021-04-01</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2181,12 +2193,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>7675</t>
+          <t>7450</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>↑235</t>
+          <t>↓225</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2196,19 +2208,19 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>6690</t>
+          <t>6470</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>↑230</t>
+          <t>↓220</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2021-03-04</t>
+          <t>2021-03-18</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2218,12 +2230,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>7440</t>
+          <t>7675</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>↑260</t>
+          <t>↑235</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2233,19 +2245,19 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>6460</t>
+          <t>6690</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>↑250</t>
+          <t>↑230</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2021-02-19</t>
+          <t>2021-03-04</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2255,12 +2267,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>7180</t>
+          <t>7440</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>↑275</t>
+          <t>↑260</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2270,49 +2282,1602 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>6210</t>
+          <t>6460</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>↑265</t>
+          <t>↑250</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>2021-02-19</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>7180</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>↑275</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6210</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>↑265</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>2021-01-30</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>汽油</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>6905</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>↑75</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>柴油</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
         <is>
           <t>5945</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>↑70</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2021-01-16</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>6830</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>↑185</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5875</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>↑180</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>6645</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>↑90</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5695</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>↑85</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2020-12-18</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>6555</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>↑155</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5610</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>↑150</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2020-12-04</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>6400</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>↑250</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5460</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>↑240</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2020-11-20</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>6150</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>↑150</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5220</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>↑145</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2020-11-06</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>↓160</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5075</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>↓150</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2020-10-23</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>6160</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>↑80</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>↑70</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2020-09-19</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>6080</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>↓315</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5155</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>↓300</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2020-08-22</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>6395</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>↑85</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5455</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>↑80</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2020-07-11</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>6310</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>↑100</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5375</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>↑100</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2020-06-29</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>6210</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>↑120</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5275</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>↑110</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>6090</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>↓1015</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5165</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>↓975</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>↓415</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6140</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>↓400</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2020-02-05</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>7520</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>↓420</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6540</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>↓405</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2019-12-31</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>7940</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>↑235</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6945</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>↑230</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2019-12-03</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>7705</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>↑55</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6715</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>↑50</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2019-11-19</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>7650</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>↑70</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6665</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>↑65</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2019-11-05</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>7580</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>↑105</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6600</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>↑105</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2019-10-22</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>7475</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>↓150</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6495</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>↓145</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2019-09-19</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>7625</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>↑125</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6640</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>↑125</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2019-09-04</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>7500</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>↑115</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6515</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>↑105</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2019-08-21</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>7385</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>↓210</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6410</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>↓205</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2019-08-07</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>↓80</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6615</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>↓70</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2019-07-10</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>7675</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>↑150</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6685</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>↑140</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2019-06-26</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>7525</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>↓120</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6545</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>↓115</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2019-06-12</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>7645</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>↓465</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6660</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>↓445</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2019-05-28</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>8110</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>↑50</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7105</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>↑50</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2019-05-14</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>8060</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>↓75</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>↓75</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2019-04-27</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>8135</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>↑195</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>↑185</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2019-04-13</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>7940</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>↓50</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6945</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>↓30</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2019-03-29</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>7990</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>↑80</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6975</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>↑80</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2019-03-01</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>7910</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>↑270</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6895</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>↑260</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2019-02-15</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>7640</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>↑50</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6635</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>↑50</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2019-01-29</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>7590</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>↑245</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6585</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>↑230</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2019-01-15</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>7345</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>↑105</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6355</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>↑105</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2018-12-29</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>↓370</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6250</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>↓355</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2018-12-15</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>7610</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>↓125</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6605</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>↓120</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2018-12-01</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>7735</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>↓540</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6725</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>↓520</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2018-11-17</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>8275</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>↓510</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>↓490</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2018-11-03</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>汽油</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>8785</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>↓375</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>柴油</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7735</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>↓365</t>
         </is>
       </c>
     </row>
